--- a/src/test/resources/import/generic/error-various-content.xlsx
+++ b/src/test/resources/import/generic/error-various-content.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9920247-D109-46D6-A753-650B80DB25ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{B82DAFE4-B465-4331-9AC7-D3D96C26A168}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="registrants" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>First Name</t>
   </si>
@@ -41,15 +41,15 @@
     <t>Adrien</t>
   </si>
   <si>
-    <t>Horgnies</t>
-  </si>
-  <si>
     <t>adrien.pierre.horgnies@gmail.com</t>
   </si>
   <si>
     <t>EN_GB</t>
   </si>
   <si>
+    <t>Where is the lastname ?!</t>
+  </si>
+  <si>
     <t>Renaud</t>
   </si>
   <si>
@@ -68,18 +68,24 @@
     <t>sroekhaut@altissia.org</t>
   </si>
   <si>
+    <t>BOUP</t>
+  </si>
+  <si>
+    <t>BOUP is not even a language</t>
+  </si>
+  <si>
+    <t>Mathieu</t>
+  </si>
+  <si>
+    <t>Bacoup</t>
+  </si>
+  <si>
+    <t>@beable.com</t>
+  </si>
+  <si>
     <t>FR_FR</t>
   </si>
   <si>
-    <t>Mathieu</t>
-  </si>
-  <si>
-    <t>Bacoup</t>
-  </si>
-  <si>
-    <t>@beable.com</t>
-  </si>
-  <si>
     <t>not a valid email</t>
   </si>
   <si>
@@ -89,7 +95,7 @@
     <t>gagneray@beable.com</t>
   </si>
   <si>
-    <t>PT_BR</t>
+    <t>IT_IT</t>
   </si>
   <si>
     <t>not a valid last name</t>
@@ -116,31 +122,28 @@
     <t>SRS</t>
   </si>
   <si>
+    <t>DE_DE</t>
+  </si>
+  <si>
     <t>SRS doesn't exist</t>
   </si>
   <si>
-    <t>VISIO</t>
-  </si>
-  <si>
     <t>NL_NL</t>
   </si>
   <si>
-    <t>ES_ES</t>
-  </si>
-  <si>
     <t>ASSESSMENT</t>
   </si>
   <si>
+    <t>mbacoup@beable.com</t>
+  </si>
+  <si>
+    <t>mbacoup is absent from the registrants sheet</t>
+  </si>
+  <si>
+    <t>NEWS</t>
+  </si>
+  <si>
     <t>should at least be zero</t>
-  </si>
-  <si>
-    <t>mbacoup@beable.com</t>
-  </si>
-  <si>
-    <t>IT_IT</t>
-  </si>
-  <si>
-    <t>mbacoup is absent from the registrants sheet</t>
   </si>
 </sst>
 </file>
@@ -505,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -534,13 +537,13 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -555,7 +558,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,36 +574,39 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -619,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4430BB58-B4E4-4B0E-8687-53C62F0242DD}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{0AE93642-3064-541A-AC2E-D2431B81D913}">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0" xr3:uid="{0AE93642-3064-541A-AC2E-D2431B81D913}">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -634,47 +640,47 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2">
         <v>300</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -682,27 +688,27 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -710,47 +716,44 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>50</v>
+        <v>-1</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
